--- a/REVER_DailyTracker_20201001.xlsx
+++ b/REVER_DailyTracker_20201001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172B491B-B574-47CD-ACBB-8305B9440136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD7CC47-A772-42C8-AB35-DBFCD6D3732F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t xml:space="preserve">Application- Login page designed              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRS Count Design    </t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>Testing Data</t>
   </si>
 </sst>
 </file>
@@ -217,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -272,6 +281,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1142,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1476,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1491,7 +1503,7 @@
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1514,22 +1526,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>

--- a/REVER_DailyTracker_20201001.xlsx
+++ b/REVER_DailyTracker_20201001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD7CC47-A772-42C8-AB35-DBFCD6D3732F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6316CE-0279-45F1-B2C0-60BDE73D6807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Testing Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium log file count , and Return Credit(Issue Checking and Solving QMVAR) </t>
+  </si>
+  <si>
+    <t>Daily and Monthly tasks Checking</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -285,6 +294,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1415,14 +1428,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1488,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/REVER_DailyTracker_20201001.xlsx
+++ b/REVER_DailyTracker_20201001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6316CE-0279-45F1-B2C0-60BDE73D6807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5331F-8841-462E-8116-AC6D766619DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Daily and Monthly tasks Checking</t>
+  </si>
+  <si>
+    <t>B2C &amp; Hayaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app, Hayaai site and Load Testing on B2C app </t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +144,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -235,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -298,6 +311,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,15 +641,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -651,7 +673,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -728,15 +750,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -839,15 +861,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -949,15 +971,15 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -983,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -992,7 +1014,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
@@ -1060,15 +1082,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1171,15 +1193,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1283,15 +1305,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1390,19 +1412,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1428,7 +1450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1519,15 +1541,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -1654,15 +1676,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1761,19 +1783,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1799,13 +1821,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">

--- a/REVER_DailyTracker_20201001.xlsx
+++ b/REVER_DailyTracker_20201001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5331F-8841-462E-8116-AC6D766619DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561D1CD4-E47E-4145-9618-90ACF211D001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app, Hayaai site and Load Testing on B2C app </t>
+  </si>
+  <si>
+    <t>RPA SONY</t>
+  </si>
+  <si>
+    <t>Correction Received for DRS-Monthly, SAW Discount Monthly and ReturnCredit Monthly tasks</t>
+  </si>
+  <si>
+    <t>RPA SAMSUNG</t>
+  </si>
+  <si>
+    <t>A 7 files are uploaded with customization in single approach for Scheduling Reports tasks</t>
   </si>
 </sst>
 </file>
@@ -248,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -320,6 +332,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,19 +650,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -673,22 +686,46 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -750,15 +787,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -861,15 +898,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -971,15 +1008,15 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1005,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1014,7 +1051,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
@@ -1082,15 +1119,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1193,15 +1230,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1305,15 +1342,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1416,15 +1453,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1450,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1541,15 +1578,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -1676,15 +1713,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1783,19 +1820,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1821,7 +1858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/REVER_DailyTracker_20201001.xlsx
+++ b/REVER_DailyTracker_20201001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561D1CD4-E47E-4145-9618-90ACF211D001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7002C3D-8810-43F4-AAF7-A531A52F35BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>A 7 files are uploaded with customization in single approach for Scheduling Reports tasks</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Checking date time issue</t>
+  </si>
+  <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
+    <t>Project set up</t>
   </si>
 </sst>
 </file>
@@ -151,19 +163,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -260,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,9 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,16 +330,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,19 +664,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -686,7 +700,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -720,7 +734,7 @@
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>0.7</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -787,15 +801,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -898,15 +912,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1004,19 +1018,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1042,22 +1328,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="20"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1111,23 +1397,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1222,23 +1620,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1264,126 +1662,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
         <v>44105</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1445,26 +1745,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1487,36 +1787,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
         <v>44105</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>16</v>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="29">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1570,26 +1880,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1612,46 +1922,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1705,23 +1991,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1747,13 +2033,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1814,127 +2112,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/REVER_DailyTracker_20201001.xlsx
+++ b/REVER_DailyTracker_20201001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7002C3D-8810-43F4-AAF7-A531A52F35BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2CB631-E572-44CB-AE62-6241AF515724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Project set up</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -668,15 +674,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -700,7 +706,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -801,15 +807,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -912,15 +918,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1018,19 +1024,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1290,19 +1296,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1330,11 +1336,21 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1405,15 +1421,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1517,15 +1533,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1628,15 +1644,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1662,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1753,15 +1769,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -1888,15 +1904,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1999,15 +2015,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2033,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
